--- a/biology/Zoologie/Actias_neidhoeferi/Actias_neidhoeferi.xlsx
+++ b/biology/Zoologie/Actias_neidhoeferi/Actias_neidhoeferi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Actias neidhoederi est une espèce de papillons de la famille des Saturniidae. C'est une espèce endémique de Taïwan.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Actias neidhoeferi est présent dans les montagnes taïwanaises à partir de 2 000 m d'altitude.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mâle mesure environ 5-7 cm et la femelle environ 7 -cm. Il y a peu de dimorphisme sexuel chez cette espèce.
 </t>
@@ -573,9 +589,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom complet est Actias neidhoeferi Ong &amp; Yu, 1968[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom complet est Actias neidhoeferi Ong &amp; Yu, 1968.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, neidhoeferi, lui a été donnée en l'honneur de James R. Neidhoeffer, en reconnaissance de son amitié[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, neidhoeferi, lui a été donnée en l'honneur de James R. Neidhoeffer, en reconnaissance de son amitié.
 </t>
         </is>
       </c>
